--- a/04_JAMA/Reporte/PP_REP_v1_BD de Riesgos.xlsx
+++ b/04_JAMA/Reporte/PP_REP_v1_BD de Riesgos.xlsx
@@ -5,24 +5,33 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\UTL\Parcial 2\Integradora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro\Documents\UTL\Parcial 2\Integradora\Actividad 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1575835-FC36-461C-B7F6-D1D228C6B89B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DBF8EC-DC79-4240-82C9-D008B48664BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="1" r:id="rId1"/>
     <sheet name="Riesgos" sheetId="2" r:id="rId2"/>
     <sheet name="Medidas_Mitigacion_Contingencia" sheetId="3" r:id="rId3"/>
+    <sheet name="Matriz_Probabilidad_Impacto" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="549">
   <si>
     <t>Versión</t>
   </si>
@@ -72,9 +81,6 @@
     <t>Documento base</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Mejora de Procesos</t>
   </si>
   <si>
@@ -1222,13 +1228,463 @@
   </si>
   <si>
     <t>Tomar las medidas necesarias para que las herramientas esten disponibles</t>
+  </si>
+  <si>
+    <t>Se actualizarón las fechas para la segunda versión y la localización del documento.</t>
+  </si>
+  <si>
+    <t>https://utleonmx.sharepoint.com/sites/EquipoJama/_layouts/15/Doc.aspx?OR=teams&amp;action=edit&amp;sourcedoc={AA30E2F5-F1CB-4A28-8B44-AD87157434B0}</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>MMC_090</t>
+  </si>
+  <si>
+    <t>Adaptacion en la medida de lo posible</t>
+  </si>
+  <si>
+    <t>MMC_091</t>
+  </si>
+  <si>
+    <t>Hablar para llegar a un acuerdo</t>
+  </si>
+  <si>
+    <t>MMC_092</t>
+  </si>
+  <si>
+    <t>Resolver los problemas que provocan constantes cambios ya que se afecta el desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>MMC_093</t>
+  </si>
+  <si>
+    <t>Los requisitos deben estar correctamente establecidos desde la etapa de planeacion</t>
+  </si>
+  <si>
+    <t>MMC_094</t>
+  </si>
+  <si>
+    <t>Aplicarlos de ser posible de otra menara descartarlos</t>
+  </si>
+  <si>
+    <t>MMC_095</t>
+  </si>
+  <si>
+    <t>Todas las partes del proyecto deben ser correctamente plasmadas en el diagrama de Gantt</t>
+  </si>
+  <si>
+    <t>MMC_096</t>
+  </si>
+  <si>
+    <t>MMC_097</t>
+  </si>
+  <si>
+    <t>La comprobación, diseño e implementación deber ser relizada de manera rapida y eficiente para alargar la fecha de finalizacion establecida lo menor posible</t>
+  </si>
+  <si>
+    <t>MMC_098</t>
+  </si>
+  <si>
+    <t>MMC_099</t>
+  </si>
+  <si>
+    <t>No se pueden realizar funciones innesesarias que modifiquen las fechas de entrega establecidas</t>
+  </si>
+  <si>
+    <t>MMC_100</t>
+  </si>
+  <si>
+    <t>MMC_101</t>
+  </si>
+  <si>
+    <t>MMC_102</t>
+  </si>
+  <si>
+    <t>MMC_103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar un analisis previo para conocer el software y saber si es posible trabajar con el </t>
+  </si>
+  <si>
+    <t>MMC_104</t>
+  </si>
+  <si>
+    <t>Hacer saber la situacion al cliente para llegar a una solucion</t>
+  </si>
+  <si>
+    <t>MMC_105</t>
+  </si>
+  <si>
+    <t>Tratar de no depender de una tecnologia en desarrollo y en su lugar hacer uso de tecnologias completas</t>
+  </si>
+  <si>
+    <t>MMC_106</t>
+  </si>
+  <si>
+    <t>MMC_107</t>
+  </si>
+  <si>
+    <t>MMC_108</t>
+  </si>
+  <si>
+    <t>Realizar las contrataciones necesarias con antelacion al inicio del proyecto</t>
+  </si>
+  <si>
+    <t>MMC_109</t>
+  </si>
+  <si>
+    <t>MMC_110</t>
+  </si>
+  <si>
+    <t>Aplicar un plan de comunicación entre las dos partes</t>
+  </si>
+  <si>
+    <t>MMC_112</t>
+  </si>
+  <si>
+    <t>MMC_113</t>
+  </si>
+  <si>
+    <t>MMC_114</t>
+  </si>
+  <si>
+    <t>Hacer saber la situacion al cliente previo al inicio del proyecto</t>
+  </si>
+  <si>
+    <t>MMC_115</t>
+  </si>
+  <si>
+    <t>MMC_116</t>
+  </si>
+  <si>
+    <t>MMC_117</t>
+  </si>
+  <si>
+    <t>Tratar de contratar personal nuevo para perjudicar el proyecto lo menos posible</t>
+  </si>
+  <si>
+    <t>MMC_118</t>
+  </si>
+  <si>
+    <t>MMC_119</t>
+  </si>
+  <si>
+    <t>Tomar las medidas necesarias para una rapida adatacion</t>
+  </si>
+  <si>
+    <t>MMC_120</t>
+  </si>
+  <si>
+    <t>Buscar el problema y dar solucion al mismo</t>
+  </si>
+  <si>
+    <t>MMC_121</t>
+  </si>
+  <si>
+    <t>Aplicar sanciones y tratar de realizar las actividades de forma rapida y eficiente para que no se afecte mas al desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>MMC_122</t>
+  </si>
+  <si>
+    <t>MMC_123</t>
+  </si>
+  <si>
+    <t>MMC_124</t>
+  </si>
+  <si>
+    <t>Tratar de encontrar personas capacez de realizar las activades necesarias</t>
+  </si>
+  <si>
+    <t>MMC_125</t>
+  </si>
+  <si>
+    <t>Hablar con el personal para encontrar una solucion</t>
+  </si>
+  <si>
+    <t>MMC_126</t>
+  </si>
+  <si>
+    <t>Contrar personal con el perfil de forma temporal</t>
+  </si>
+  <si>
+    <t>MMC_127</t>
+  </si>
+  <si>
+    <t>Hablar para llegar a una solucion con esa persona</t>
+  </si>
+  <si>
+    <t>MMC_128</t>
+  </si>
+  <si>
+    <t>MMC_129</t>
+  </si>
+  <si>
+    <t>Asignar las tareas dependiendo del perfil y las posibilidades de cada integrante</t>
+  </si>
+  <si>
+    <t>MMC_130</t>
+  </si>
+  <si>
+    <t>MMC_131</t>
+  </si>
+  <si>
+    <t>Hacer saber a los responsables y al cliente la situacion  actual del proyecto para llegar a una solucion</t>
+  </si>
+  <si>
+    <t>MMC_132</t>
+  </si>
+  <si>
+    <t>MMC_133</t>
+  </si>
+  <si>
+    <t>El diseño debe ser establecido de modo que cubra las necesaidades del cliente</t>
+  </si>
+  <si>
+    <t>MMC_134</t>
+  </si>
+  <si>
+    <t>MMC_135</t>
+  </si>
+  <si>
+    <t>MMC_136</t>
+  </si>
+  <si>
+    <t>Las metodologias a utilizar deben ser conocidas perfectamente antes de comenzar el desarrollo del proyecto</t>
+  </si>
+  <si>
+    <t>MMC_137</t>
+  </si>
+  <si>
+    <t>Se debe escoger un lenguaje que se adapte a los requerimeintos establecidos</t>
+  </si>
+  <si>
+    <t>MMC_138</t>
+  </si>
+  <si>
+    <t>Implementar la funcionalidad en caso de ser absolutamente necesario de otro modo descartar</t>
+  </si>
+  <si>
+    <t>MMC_139</t>
+  </si>
+  <si>
+    <t>Se establecer estandares de calidad</t>
+  </si>
+  <si>
+    <t>MMC_140</t>
+  </si>
+  <si>
+    <t>No sobreestimar el  ahorro  en  la  planificación</t>
+  </si>
+  <si>
+    <t>MMC_141</t>
+  </si>
+  <si>
+    <t>Se deben establecer lineamientos para las partes desarrolladas por separado no generen problemas con su inclusion</t>
+  </si>
+  <si>
+    <t>MMC_142</t>
+  </si>
+  <si>
+    <t>Hacer saber la situacion actual al cliente</t>
+  </si>
+  <si>
+    <t>MMC_143</t>
+  </si>
+  <si>
+    <t>El proyecto debe ser correctamente planeado en el diagrama de Gantt</t>
+  </si>
+  <si>
+    <t>MMC_144</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Realizar las actividades necsarias de forma rapida y eficaz </t>
+  </si>
+  <si>
+    <t>MMC_145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Planear correctamente el control de calidad </t>
+  </si>
+  <si>
+    <t>MMC_146</t>
+  </si>
+  <si>
+    <t>Establecer normas de trabajo de forma que no sea posible ignorar los  fundamentos  y  estándares  del  desarrollo  de  software</t>
+  </si>
+  <si>
+    <t>MMC_147</t>
+  </si>
+  <si>
+    <t>Establecer normas de trabajo de forma que no sea posible un aferramiento burocrático a las políticas y estándares de software</t>
+  </si>
+  <si>
+    <t>MMC_153</t>
+  </si>
+  <si>
+    <t>Tomar las medidas necesarias para que las condiciones climaticas no afecten el funcionamiento para el cliente</t>
+  </si>
+  <si>
+    <t>MMC_154</t>
+  </si>
+  <si>
+    <t>MMC_155</t>
+  </si>
+  <si>
+    <t>Aseguramiento de que el proyecto sea realizado por los desarolladores y no sea plagiado</t>
+  </si>
+  <si>
+    <t>Matriz de probabilidad e Impacto</t>
+  </si>
+  <si>
+    <t>Impacto</t>
+  </si>
+  <si>
+    <t>Probabilidad</t>
+  </si>
+  <si>
+    <t>Muy Bajo</t>
+  </si>
+  <si>
+    <t>Bajo</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Alto</t>
+  </si>
+  <si>
+    <t>Muy Alto</t>
+  </si>
+  <si>
+    <t>0,05</t>
+  </si>
+  <si>
+    <t>0,10</t>
+  </si>
+  <si>
+    <t>0,20</t>
+  </si>
+  <si>
+    <t>0,40</t>
+  </si>
+  <si>
+    <t>0,80</t>
+  </si>
+  <si>
+    <t>Muy Alta</t>
+  </si>
+  <si>
+    <t>0,90</t>
+  </si>
+  <si>
+    <t>Alta</t>
+  </si>
+  <si>
+    <t>0,70</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>0,50</t>
+  </si>
+  <si>
+    <t>Baja</t>
+  </si>
+  <si>
+    <t>0,30</t>
+  </si>
+  <si>
+    <t>Muy Baja</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_041)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_042)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_043)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_044)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_045)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_046)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_047)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_048)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_049)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_050)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_061)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_062)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_063)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_064)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_065)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_071)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_072)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_073)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_074)</t>
+  </si>
+  <si>
+    <t>Amenaza(RG_075)</t>
+  </si>
+  <si>
+    <t>0,08</t>
+  </si>
+  <si>
+    <t>0,12</t>
+  </si>
+  <si>
+    <t>0,09</t>
+  </si>
+  <si>
+    <t>0,15</t>
+  </si>
+  <si>
+    <t>0,25</t>
+  </si>
+  <si>
+    <t>0,11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1281,8 +1737,22 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF002060"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1301,8 +1771,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1362,11 +1838,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1402,28 +1968,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1479,9 +2029,70 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{71334113-5987-447E-9199-123728A24F09}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1699,6 +2310,85 @@
         <a:xfrm>
           <a:off x="1245577" y="43962"/>
           <a:ext cx="1047750" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1209675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>111902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9239BC10-0B4E-4927-BE23-5F9C10AA1E72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1333500" y="76200"/>
+          <a:ext cx="1047750" cy="845327"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2056,8 +2746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2069,13 +2759,13 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
+      <c r="A3" s="15"/>
     </row>
     <row r="7" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="19"/>
+        <v>17</v>
+      </c>
+      <c r="B7" s="16"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
@@ -2084,8 +2774,8 @@
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="9" t="s">
-        <v>16</v>
+      <c r="B9" s="9">
+        <v>2</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2095,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -2105,7 +2795,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="13">
-        <v>43998</v>
+        <v>44012</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -2115,16 +2805,18 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
     </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="37" t="s">
+        <v>400</v>
+      </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
     </row>
@@ -2143,10 +2835,10 @@
       <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="6"/>
@@ -2163,7 +2855,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="14">
         <v>43998</v>
@@ -2173,7 +2865,7 @@
     </row>
     <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" s="14">
         <v>43998</v>
@@ -2181,9 +2873,13 @@
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="14">
+        <v>44012</v>
+      </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
     </row>
@@ -2194,10 +2890,10 @@
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
     </row>
@@ -2213,7 +2909,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="14">
         <v>43998</v>
@@ -2223,7 +2919,7 @@
     </row>
     <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="14">
         <v>43998</v>
@@ -2231,9 +2927,13 @@
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="14">
+        <v>44012</v>
+      </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
     </row>
@@ -2244,12 +2944,12 @@
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="22"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="43"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
@@ -2272,14 +2972,27 @@
       <c r="B30" s="14">
         <v>43998</v>
       </c>
-      <c r="C30" s="9" t="s">
-        <v>30</v>
+      <c r="C30" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="11" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="11">
+        <v>2</v>
+      </c>
+      <c r="B31" s="14">
+        <v>44012</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31" s="36" t="s">
+        <v>399</v>
+      </c>
+    </row>
     <row r="32" spans="1:4" s="11" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="3">
@@ -2288,10 +3001,13 @@
     <mergeCell ref="A28:D28"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{BD39F798-DE98-4A51-AA74-3AF4019E46BA}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2333,7 +3049,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="15"/>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
@@ -2369,7 +3085,7 @@
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="2"/>
@@ -2389,13 +3105,13 @@
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -2403,1782 +3119,1782 @@
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="28" t="s">
+      <c r="A10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="24" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C11" s="24" t="s">
+      <c r="B12" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>193</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="28" t="s">
+      <c r="A13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>194</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>195</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="24" t="s">
+      <c r="B15" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C15" s="24" t="s">
+      <c r="B16" s="22" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="16" t="s">
+      <c r="C16" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C16" s="24" t="s">
+      <c r="B17" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="18" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="16" t="s">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="24" t="s">
+      <c r="B18" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C18" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="C19" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C19" s="24" t="s">
+      <c r="B20" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="18" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C20" s="24" t="s">
+      <c r="B21" s="22" t="s">
+        <v>201</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="C21" s="24" t="s">
+      <c r="B22" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C22" s="24" t="s">
+      <c r="B23" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="18" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C23" s="24" t="s">
+      <c r="B24" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C24" s="24" t="s">
+      <c r="B25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="24" t="s">
+      <c r="B26" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C26" s="24" t="s">
+      <c r="B27" s="22" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="C27" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C27" s="24" t="s">
+      <c r="B28" s="22" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="C28" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B28" s="28" t="s">
-        <v>213</v>
-      </c>
-      <c r="C28" s="24" t="s">
+      <c r="B29" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="C29" s="18" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="24" t="s">
+      <c r="B30" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C30" s="24" t="s">
+      <c r="B31" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C31" s="18" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C31" s="24" t="s">
+      <c r="B32" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C32" s="24" t="s">
+      <c r="B33" s="26" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+      <c r="C33" s="21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C33" s="27" t="s">
+      <c r="B34" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="24" t="s">
+      <c r="B35" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C35" s="24" t="s">
+      <c r="B36" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="18" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="C36" s="24" t="s">
+      <c r="B37" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="18" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C37" s="24" t="s">
+      <c r="B38" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="18" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C38" s="24" t="s">
+      <c r="B39" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C39" s="24" t="s">
+      <c r="B40" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C40" s="21" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B40" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C40" s="27" t="s">
+      <c r="B41" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B41" s="28" t="s">
-        <v>219</v>
-      </c>
-      <c r="C41" s="24" t="s">
+      <c r="B42" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C42" s="21" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C42" s="27" t="s">
+      <c r="B43" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="21" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+    <row r="44" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B43" s="26" t="s">
-        <v>219</v>
-      </c>
-      <c r="C43" s="27" t="s">
+      <c r="B44" s="22" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="16" t="s">
+      <c r="C44" s="21" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="C44" s="27" t="s">
+      <c r="B45" s="22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16" t="s">
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="C45" s="25" t="s">
+      <c r="B46" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C46" s="21" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C46" s="27" t="s">
+      <c r="B47" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="C47" s="21" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="16" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="31" t="s">
-        <v>198</v>
-      </c>
-      <c r="C47" s="27" t="s">
+      <c r="B48" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="21" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="16" t="s">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="31" t="s">
-        <v>219</v>
-      </c>
-      <c r="C48" s="27" t="s">
+      <c r="B49" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="21" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="16" t="s">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="B49" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C49" s="27" t="s">
+      <c r="B50" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" s="21" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="16" t="s">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C50" s="27" t="s">
+      <c r="B51" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="21" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="16" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B51" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C51" s="27" t="s">
+      <c r="B52" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="21" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="16" t="s">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B52" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="27" t="s">
+      <c r="B53" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="21" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="16" t="s">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C53" s="27" t="s">
+      <c r="B54" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="16" t="s">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B54" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C54" s="27" t="s">
+      <c r="B55" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C55" s="21" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="16" t="s">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B55" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" s="27" t="s">
+      <c r="B56" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C56" s="21" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="16" t="s">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B56" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C56" s="27" t="s">
+      <c r="B57" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C57" s="21" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="16" t="s">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C57" s="27" t="s">
+      <c r="B58" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C58" s="21" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B58" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C58" s="27" t="s">
+      <c r="B59" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C59" s="21" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="16" t="s">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B59" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C59" s="27" t="s">
+      <c r="B60" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="21" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="16" t="s">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="B60" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C60" s="27" t="s">
+      <c r="B61" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="21" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="16" t="s">
+    <row r="62" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="B61" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C61" s="27" t="s">
+      <c r="B62" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="21" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="16" t="s">
+    <row r="63" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="B62" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C62" s="27" t="s">
+      <c r="B63" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="21" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="16" t="s">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B63" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C63" s="27" t="s">
+      <c r="B64" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="16" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B64" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C64" s="27" t="s">
+      <c r="B65" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C65" s="21" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="16" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B65" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C65" s="27" t="s">
+      <c r="B66" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="21" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="16" t="s">
+    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B66" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C66" s="27" t="s">
+      <c r="B67" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="21" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="16" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="B67" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C67" s="27" t="s">
+      <c r="B68" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C68" s="21" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="16" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B68" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C68" s="27" t="s">
+      <c r="B69" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="21" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="16" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="B69" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C69" s="27" t="s">
+      <c r="B70" s="26" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="16" t="s">
+      <c r="C70" s="21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="B70" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C70" s="27" t="s">
+      <c r="B71" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" s="21" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="16" t="s">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="B71" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C71" s="27" t="s">
+      <c r="B72" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C72" s="21" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="16" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="B72" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C72" s="27" t="s">
+      <c r="B73" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C73" s="21" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="16" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="B73" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C73" s="27" t="s">
+      <c r="B74" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C74" s="21" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="16" t="s">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="B74" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C74" s="27" t="s">
+      <c r="B75" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C75" s="21" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="16" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="B75" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C75" s="27" t="s">
+      <c r="B76" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="21" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="16" t="s">
+    <row r="77" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B76" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C76" s="27" t="s">
+      <c r="B77" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" s="21" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="16" t="s">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="B77" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C77" s="27" t="s">
+      <c r="B78" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78" s="21" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="16" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B78" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C78" s="27" t="s">
+      <c r="B79" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" s="21" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="16" t="s">
+    <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B79" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C79" s="27" t="s">
+      <c r="B80" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="C80" s="21" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="16" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B80" s="32" t="s">
-        <v>258</v>
-      </c>
-      <c r="C80" s="27" t="s">
+      <c r="B81" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C81" s="21" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="16" t="s">
+    <row r="82" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A82" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B81" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="C81" s="27" t="s">
+      <c r="B82" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C82" s="21" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="16" t="s">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="C82" s="27" t="s">
+      <c r="B83" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C83" s="21" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="16" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B83" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="C83" s="27" t="s">
+      <c r="B84" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="21" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="16" t="s">
+    <row r="85" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B84" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="C84" s="27" t="s">
+      <c r="B85" s="26" t="s">
+        <v>190</v>
+      </c>
+      <c r="C85" s="21" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A85" s="16" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B85" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="C85" s="27" t="s">
+      <c r="B86" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" s="21" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="16" t="s">
+    <row r="87" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B86" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C86" s="27" t="s">
+      <c r="B87" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="21" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="16" t="s">
+    <row r="88" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B87" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C87" s="27" t="s">
+      <c r="B88" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" s="21" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="16" t="s">
+    <row r="89" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B88" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C88" s="27" t="s">
+      <c r="B89" s="26" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="16" t="s">
+      <c r="C89" s="21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B89" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C89" s="27" t="s">
+      <c r="B90" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C90" s="21" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="16" t="s">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B90" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C90" s="27" t="s">
+      <c r="B91" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C91" s="21" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="16" t="s">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B91" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C91" s="27" t="s">
+      <c r="B92" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="21" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="16" t="s">
+    <row r="93" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A93" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B92" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C92" s="27" t="s">
+      <c r="B93" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="21" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="16" t="s">
+    <row r="94" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A94" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B93" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C93" s="27" t="s">
+      <c r="B94" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C94" s="21" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A94" s="16" t="s">
+    <row r="95" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B94" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C94" s="27" t="s">
+      <c r="B95" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C95" s="21" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="16" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B95" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C95" s="27" t="s">
+      <c r="B96" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" s="24" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="16" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B96" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C96" s="30" t="s">
+      <c r="B97" s="23" t="s">
+        <v>277</v>
+      </c>
+      <c r="C97" s="21" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="16" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B97" s="29" t="s">
-        <v>278</v>
-      </c>
-      <c r="C97" s="27" t="s">
+      <c r="B98" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="21" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="16" t="s">
+    <row r="99" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A99" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B98" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="27" t="s">
+      <c r="B99" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C99" s="21" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A99" s="16" t="s">
+    <row r="100" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A100" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B99" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C99" s="27" t="s">
+      <c r="B100" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" s="21" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="16" t="s">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B100" s="29" t="s">
-        <v>194</v>
-      </c>
-      <c r="C100" s="27" t="s">
+      <c r="B101" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" s="21" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="16" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B101" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="C101" s="27" t="s">
+      <c r="B102" s="23" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="16" t="s">
+      <c r="C102" s="21" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B102" s="29" t="s">
-        <v>292</v>
-      </c>
-      <c r="C102" s="27" t="s">
+      <c r="B103" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C103" s="21" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="16" t="s">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B103" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C103" s="27" t="s">
+      <c r="B104" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C104" s="21" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="16" t="s">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B104" s="29" t="s">
-        <v>198</v>
-      </c>
-      <c r="C104" s="27" t="s">
+      <c r="B105" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C105" s="21" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="16" t="s">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B105" s="29" t="s">
+      <c r="B106" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="27" t="s">
+      <c r="C106" s="24" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="16" t="s">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B106" s="29" t="s">
+      <c r="B107" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C106" s="30" t="s">
+      <c r="C107" s="21" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="16" t="s">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B107" s="32" t="s">
+      <c r="B108" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C107" s="27" t="s">
+      <c r="C108" s="21" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="16" t="s">
+    <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A109" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B108" s="32" t="s">
+      <c r="B109" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C108" s="27" t="s">
+      <c r="C109" s="21" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="16" t="s">
+    <row r="110" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B109" s="32" t="s">
+      <c r="B110" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C109" s="27" t="s">
+      <c r="C110" s="21" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="16" t="s">
+    <row r="111" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A111" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B110" s="32" t="s">
+      <c r="B111" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C110" s="27" t="s">
+      <c r="C111" s="21" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A111" s="16" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B111" s="32" t="s">
+      <c r="B112" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C111" s="27" t="s">
+      <c r="C112" s="21" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="16" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B112" s="32" t="s">
+      <c r="B113" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="27" t="s">
+      <c r="C113" s="21" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="16" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B113" s="32" t="s">
+      <c r="B114" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C113" s="27" t="s">
+      <c r="C114" s="21" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="16" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B114" s="32" t="s">
+      <c r="B115" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" s="21" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C116" s="21" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C117" s="21" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A118" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C118" s="21" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C119" s="21" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C120" s="21" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C121" s="21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C122" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B123" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C124" s="21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A128" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A130" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A132" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A134" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A141" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A143" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="B143" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="B144" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A145" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="B145" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B146" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A147" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A148" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B148" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B149" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="B150" s="26" t="s">
+        <v>218</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="B151" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A152" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B152" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B153" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="B154" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A155" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B155" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A156" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B156" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B157" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="B158" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B159" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="C159" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B160" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B161" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C161" s="21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B162" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C162" s="21" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B163" s="26" t="s">
+        <v>277</v>
+      </c>
+      <c r="C163" s="21" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B164" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C114" s="27" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B115" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="C115" s="27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B116" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="C116" s="27" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="B117" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C117" s="27" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A118" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B118" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C118" s="27" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="16" t="s">
-        <v>140</v>
-      </c>
-      <c r="B119" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C119" s="27" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="B120" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C120" s="27" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B121" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C121" s="27" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B122" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C122" s="27" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B123" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C123" s="27" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B124" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C124" s="27" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B125" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C125" s="27" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B126" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C126" s="27" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="B127" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C127" s="27" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A128" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="B128" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C128" s="27" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B129" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C129" s="27" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A130" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B130" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C130" s="27" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="B131" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C131" s="27" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A132" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="B132" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C132" s="27" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="16" t="s">
-        <v>154</v>
-      </c>
-      <c r="B133" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C133" s="27" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A134" s="16" t="s">
-        <v>155</v>
-      </c>
-      <c r="B134" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C134" s="27" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="B135" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C135" s="27" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B136" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C136" s="27" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B137" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C137" s="27" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="B138" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C138" s="27" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="B139" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C139" s="27" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="16" t="s">
-        <v>161</v>
-      </c>
-      <c r="B140" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C140" s="27" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A141" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B141" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C141" s="27" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="16" t="s">
-        <v>163</v>
-      </c>
-      <c r="B142" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C142" s="27" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A143" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="B143" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C143" s="27" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="B144" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C144" s="27" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A145" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="B145" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C145" s="27" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="16" t="s">
-        <v>167</v>
-      </c>
-      <c r="B146" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="C146" s="27" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="B147" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C147" s="27" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="B148" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C148" s="27" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="16" t="s">
-        <v>170</v>
-      </c>
-      <c r="B149" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="C149" s="27" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="B150" s="32" t="s">
-        <v>219</v>
-      </c>
-      <c r="C150" s="27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="B151" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C151" s="27" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A152" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="B152" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C152" s="27" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="B153" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C153" s="27" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="B154" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C154" s="27" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A155" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="B155" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C155" s="27" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A156" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="B156" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C156" s="27" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="16" t="s">
-        <v>178</v>
-      </c>
-      <c r="B157" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C157" s="27" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="B158" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C158" s="27" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="B159" s="32" t="s">
-        <v>342</v>
-      </c>
-      <c r="C159" s="27" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B160" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="C160" s="27" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="B161" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="C161" s="27" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="B162" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C162" s="27" t="s">
+      <c r="C164" s="21" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B163" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="C163" s="27" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="16" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="B164" s="32" t="s">
+      <c r="B165" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="C165" s="21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="B166" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C164" s="27" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="B165" s="32" t="s">
-        <v>202</v>
-      </c>
-      <c r="C165" s="27" t="s">
+      <c r="C166" s="21" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="16" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="15" t="s">
         <v>187</v>
       </c>
-      <c r="B166" s="32" t="s">
+      <c r="B167" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="27" t="s">
+      <c r="C167" s="21" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="16" t="s">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="B167" s="32" t="s">
+      <c r="B168" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C167" s="27" t="s">
+      <c r="C168" s="21" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="16" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="B168" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C168" s="27" t="s">
+      <c r="B169" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="C169" s="19" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="B169" s="26" t="s">
-        <v>194</v>
-      </c>
-      <c r="C169" s="25" t="s">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="15"/>
+      <c r="B170" s="26" t="s">
+        <v>193</v>
+      </c>
+      <c r="C170" s="21" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="16"/>
-      <c r="B170" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="C170" s="27" t="s">
-        <v>361</v>
-      </c>
-    </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="16"/>
+      <c r="A171" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4191,10 +4907,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C10" sqref="A10:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4227,7 +4943,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3"/>
-      <c r="B3" s="16"/>
+      <c r="B3" s="15"/>
       <c r="C3"/>
       <c r="D3"/>
       <c r="E3"/>
@@ -4263,10 +4979,10 @@
     </row>
     <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="20"/>
+      <c r="C7" s="17"/>
       <c r="D7" s="3"/>
       <c r="E7"/>
       <c r="F7"/>
@@ -4283,13 +4999,13 @@
     </row>
     <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="D9"/>
       <c r="E9"/>
@@ -4297,430 +5013,902 @@
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>362</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="33" t="s">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="28" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
+      <c r="B11" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="C11" s="27" t="s">
         <v>365</v>
       </c>
-      <c r="C11" s="33" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
+      <c r="B12" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="27" t="s">
         <v>367</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>368</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>369</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="33" t="s">
+      <c r="A13" s="28" t="s">
         <v>368</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>367</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="28" t="s">
+        <v>369</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="33" t="s">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="B15" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="B15" s="35" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
+        <v>379</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="27" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>387</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="34" t="s">
+        <v>389</v>
+      </c>
+      <c r="B25" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="34" t="s">
+        <v>391</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="34" t="s">
+        <v>393</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="34" t="s">
+        <v>395</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="34" t="s">
+        <v>397</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>364</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="40" t="s">
+        <v>402</v>
+      </c>
+      <c r="B30" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="39" t="s">
+        <v>403</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="40" t="s">
+        <v>404</v>
+      </c>
+      <c r="B31" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="39" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="39" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="40" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C33" s="39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="40" t="s">
+        <v>410</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C35" s="39" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="39" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="40" t="s">
+        <v>415</v>
+      </c>
+      <c r="B37" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="39" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="B38" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="40" t="s">
+        <v>418</v>
+      </c>
+      <c r="B39" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C39" s="39" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="40" t="s">
+        <v>420</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="40" t="s">
+        <v>421</v>
+      </c>
+      <c r="B41" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="39" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="40" t="s">
+        <v>422</v>
+      </c>
+      <c r="B42" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="39" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="40" t="s">
+        <v>423</v>
+      </c>
+      <c r="B43" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C43" s="39" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="B44" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="40" t="s">
+        <v>427</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C45" s="38" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="40" t="s">
+        <v>429</v>
+      </c>
+      <c r="B46" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C46" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="40" t="s">
+        <v>430</v>
+      </c>
+      <c r="B47" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="40" t="s">
+        <v>431</v>
+      </c>
+      <c r="B48" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C48" s="39" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="40" t="s">
+        <v>433</v>
+      </c>
+      <c r="B49" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="40" t="s">
+        <v>434</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C50" s="39" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="40" t="s">
+        <v>436</v>
+      </c>
+      <c r="B51" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="B52" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C52" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="C15" s="33" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="40" t="s">
+        <v>438</v>
+      </c>
+      <c r="B53" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C53" s="39" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="40" t="s">
+        <v>440</v>
+      </c>
+      <c r="B54" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="B55" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="B56" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" s="39" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="40" t="s">
+        <v>444</v>
+      </c>
+      <c r="B57" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="40" t="s">
+        <v>445</v>
+      </c>
+      <c r="B58" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="39" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="40" t="s">
+        <v>449</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" s="39" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="40" t="s">
+        <v>451</v>
+      </c>
+      <c r="B61" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C61" s="39" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="40" t="s">
+        <v>452</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="40" t="s">
+        <v>453</v>
+      </c>
+      <c r="B63" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="40" t="s">
+        <v>457</v>
+      </c>
+      <c r="B65" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="39" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="40" t="s">
+        <v>459</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="39" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="40" t="s">
+        <v>461</v>
+      </c>
+      <c r="B67" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="39" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="40" t="s">
+        <v>462</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="40" t="s">
+        <v>464</v>
+      </c>
+      <c r="B69" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C69" s="39" t="s">
         <v>374</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="35" t="s">
-        <v>376</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="B18" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
-        <v>380</v>
-      </c>
-      <c r="B19" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="37" t="s">
-        <v>381</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="37" t="s">
-        <v>383</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>385</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
-        <v>387</v>
-      </c>
-      <c r="B23" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="38" t="s">
-        <v>388</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>365</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="40" t="s">
-        <v>390</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="40" t="s">
-        <v>392</v>
-      </c>
-      <c r="B26" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
-        <v>394</v>
-      </c>
-      <c r="B27" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="C27" s="39" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="40" t="s">
-        <v>396</v>
-      </c>
-      <c r="B28" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="C28" s="39" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="40" t="s">
-        <v>398</v>
-      </c>
-      <c r="B29" s="41" t="s">
-        <v>365</v>
-      </c>
-      <c r="C29" s="39" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="17"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B33" s="16"/>
-      <c r="C33"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="17"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="18"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="18"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="15"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C42" s="15"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C43" s="15"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="15"/>
-    </row>
-    <row r="45" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-    </row>
-    <row r="46" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-    </row>
-    <row r="67" spans="1:1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="16"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A71" s="16"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="16"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="16"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A85" s="16"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A89" s="16"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A90" s="16"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A91" s="16"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A92" s="16"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A93" s="16"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A94" s="16"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A95" s="16"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A96" s="16"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A97" s="16"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="40" t="s">
+        <v>465</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="39" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="40" t="s">
+        <v>467</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="40" t="s">
+        <v>468</v>
+      </c>
+      <c r="B72" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C72" s="39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="40" t="s">
+        <v>470</v>
+      </c>
+      <c r="B73" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C73" s="39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="40" t="s">
+        <v>471</v>
+      </c>
+      <c r="B74" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C74" s="39" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A75" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="B75" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C75" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C76" s="39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="40" t="s">
+        <v>476</v>
+      </c>
+      <c r="B77" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="39" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="40" t="s">
+        <v>478</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C78" s="39" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="40" t="s">
+        <v>480</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C79" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="B80" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="40" t="s">
+        <v>484</v>
+      </c>
+      <c r="B81" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="39" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="40" t="s">
+        <v>486</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C82" s="39" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="40" t="s">
+        <v>488</v>
+      </c>
+      <c r="B83" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="39" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="40" t="s">
+        <v>490</v>
+      </c>
+      <c r="B84" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A85" s="40" t="s">
+        <v>492</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C85" s="39" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="40" t="s">
+        <v>494</v>
+      </c>
+      <c r="B86" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C86" s="39" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A87" s="40" t="s">
+        <v>496</v>
+      </c>
+      <c r="B87" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C87" s="39" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="40" t="s">
+        <v>498</v>
+      </c>
+      <c r="B88" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C88" s="39" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="40" t="s">
+        <v>499</v>
+      </c>
+      <c r="B89" s="40" t="s">
+        <v>364</v>
+      </c>
+      <c r="C89" s="39" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="15"/>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="15"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -4734,4 +5922,2660 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42D351A-E2DF-428B-A1AA-FF4AC66A8E66}">
+  <dimension ref="A3:G208"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="22"/>
+    </row>
+    <row r="7" spans="1:7" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="41"/>
+    </row>
+    <row r="10" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="56" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E11" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F11" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G11" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="48"/>
+      <c r="B12" s="49"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+    </row>
+    <row r="13" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D13" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E13" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G13" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55" t="s">
+        <v>546</v>
+      </c>
+      <c r="G15" s="55"/>
+    </row>
+    <row r="16" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+    </row>
+    <row r="17" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="20" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D21" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E21" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F21" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G21" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D23" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E23" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F23" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G23" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B24" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B25" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55" t="s">
+        <v>545</v>
+      </c>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B27" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="30" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="56" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D31" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G31" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="48"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+    </row>
+    <row r="33" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G33" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+    </row>
+    <row r="35" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B35" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55" t="s">
+        <v>544</v>
+      </c>
+      <c r="G35" s="55"/>
+    </row>
+    <row r="36" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B36" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+    </row>
+    <row r="37" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B37" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+    </row>
+    <row r="38" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+    </row>
+    <row r="40" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="56" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D41" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E41" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F41" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G41" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="48"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="50"/>
+    </row>
+    <row r="43" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B43" s="52"/>
+      <c r="C43" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D43" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E43" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F43" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G43" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B44" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+    </row>
+    <row r="45" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B45" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+    </row>
+    <row r="46" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+    </row>
+    <row r="47" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B47" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55" t="s">
+        <v>543</v>
+      </c>
+      <c r="G47" s="55"/>
+    </row>
+    <row r="48" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B48" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+    </row>
+    <row r="50" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="56" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B51" s="46"/>
+      <c r="C51" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D51" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E51" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F51" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="48"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="50"/>
+      <c r="E52" s="50"/>
+      <c r="F52" s="50"/>
+      <c r="G52" s="50"/>
+    </row>
+    <row r="53" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B53" s="52"/>
+      <c r="C53" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D53" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F53" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B54" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C54" s="55"/>
+      <c r="D54" s="55"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+    </row>
+    <row r="55" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B55" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C55" s="55"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55" t="s">
+        <v>544</v>
+      </c>
+      <c r="F55" s="55"/>
+      <c r="G55" s="55"/>
+    </row>
+    <row r="56" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B56" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C56" s="55"/>
+      <c r="D56" s="55"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="55"/>
+    </row>
+    <row r="57" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B57" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C57" s="55"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
+      <c r="F57" s="55"/>
+      <c r="G57" s="55"/>
+    </row>
+    <row r="58" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B58" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C58" s="55"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="55"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+    </row>
+    <row r="60" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="56" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B61" s="46"/>
+      <c r="C61" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E61" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F61" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G61" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="48"/>
+      <c r="B62" s="49"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+    </row>
+    <row r="63" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B63" s="52"/>
+      <c r="C63" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D63" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E63" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F63" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G63" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C64" s="55"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="55"/>
+    </row>
+    <row r="65" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C65" s="55"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="55"/>
+    </row>
+    <row r="66" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="55"/>
+    </row>
+    <row r="67" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C67" s="55"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
+      <c r="F67" s="55" t="s">
+        <v>543</v>
+      </c>
+      <c r="G67" s="55"/>
+    </row>
+    <row r="68" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C68" s="55"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="55"/>
+      <c r="F68" s="55"/>
+      <c r="G68" s="55"/>
+    </row>
+    <row r="70" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="56" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B71" s="46"/>
+      <c r="C71" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D71" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E71" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F71" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G71" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="48"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="50"/>
+      <c r="F72" s="50"/>
+      <c r="G72" s="50"/>
+    </row>
+    <row r="73" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B73" s="52"/>
+      <c r="C73" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D73" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E73" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F73" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G73" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B74" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C74" s="55"/>
+      <c r="D74" s="55"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="55"/>
+    </row>
+    <row r="75" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B75" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C75" s="55"/>
+      <c r="D75" s="55"/>
+      <c r="E75" s="55"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+    </row>
+    <row r="76" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C76" s="55"/>
+      <c r="D76" s="55"/>
+      <c r="E76" s="55"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="55"/>
+    </row>
+    <row r="77" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C77" s="55"/>
+      <c r="D77" s="55"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="G77" s="55" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B78" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C78" s="55"/>
+      <c r="D78" s="55"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="55"/>
+    </row>
+    <row r="80" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="56" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B81" s="46"/>
+      <c r="C81" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E81" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F81" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G81" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="48"/>
+      <c r="B82" s="49"/>
+      <c r="C82" s="50"/>
+      <c r="D82" s="50"/>
+      <c r="E82" s="50"/>
+      <c r="F82" s="50"/>
+      <c r="G82" s="50"/>
+    </row>
+    <row r="83" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B83" s="52"/>
+      <c r="C83" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D83" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E83" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F83" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G83" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B84" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C84" s="55"/>
+      <c r="D84" s="55"/>
+      <c r="E84" s="55"/>
+      <c r="F84" s="55"/>
+      <c r="G84" s="55" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B85" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C85" s="55"/>
+      <c r="D85" s="55"/>
+      <c r="E85" s="55"/>
+      <c r="F85" s="55"/>
+      <c r="G85" s="55"/>
+    </row>
+    <row r="86" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C86" s="55"/>
+      <c r="D86" s="55"/>
+      <c r="E86" s="55"/>
+      <c r="F86" s="55"/>
+      <c r="G86" s="55"/>
+    </row>
+    <row r="87" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B87" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C87" s="55"/>
+      <c r="D87" s="55"/>
+      <c r="E87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="55"/>
+    </row>
+    <row r="88" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B88" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C88" s="55"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+    </row>
+    <row r="90" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="56" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B91" s="46"/>
+      <c r="C91" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D91" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E91" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F91" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G91" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="48"/>
+      <c r="B92" s="49"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="50"/>
+      <c r="E92" s="50"/>
+      <c r="F92" s="50"/>
+      <c r="G92" s="50"/>
+    </row>
+    <row r="93" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B93" s="52"/>
+      <c r="C93" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D93" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E93" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F93" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G93" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B94" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C94" s="55"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="55"/>
+    </row>
+    <row r="95" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B95" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C95" s="55"/>
+      <c r="D95" s="55"/>
+      <c r="E95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="55"/>
+    </row>
+    <row r="96" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B96" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55" t="s">
+        <v>544</v>
+      </c>
+      <c r="G96" s="55"/>
+    </row>
+    <row r="97" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B97" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C97" s="55"/>
+      <c r="D97" s="55"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="55"/>
+    </row>
+    <row r="98" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B98" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C98" s="55"/>
+      <c r="D98" s="55"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="55"/>
+    </row>
+    <row r="100" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="56" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B101" s="46"/>
+      <c r="C101" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D101" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E101" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F101" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G101" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="48"/>
+      <c r="B102" s="49"/>
+      <c r="C102" s="50"/>
+      <c r="D102" s="50"/>
+      <c r="E102" s="50"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+    </row>
+    <row r="103" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B103" s="52"/>
+      <c r="C103" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D103" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E103" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F103" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G103" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B104" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C104" s="55"/>
+      <c r="D104" s="55"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="55"/>
+    </row>
+    <row r="105" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B105" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C105" s="55"/>
+      <c r="D105" s="55"/>
+      <c r="E105" s="55"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="55"/>
+    </row>
+    <row r="106" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B106" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C106" s="55"/>
+      <c r="D106" s="55"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55" t="s">
+        <v>546</v>
+      </c>
+      <c r="G106" s="55"/>
+    </row>
+    <row r="107" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B107" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C107" s="55"/>
+      <c r="D107" s="55"/>
+      <c r="E107" s="55"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="55"/>
+    </row>
+    <row r="108" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B108" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C108" s="55"/>
+      <c r="D108" s="55"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="55"/>
+    </row>
+    <row r="110" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="56" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B111" s="46"/>
+      <c r="C111" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D111" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E111" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F111" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G111" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="48"/>
+      <c r="B112" s="49"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
+    </row>
+    <row r="113" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B113" s="52"/>
+      <c r="C113" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D113" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E113" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F113" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G113" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B114" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C114" s="55"/>
+      <c r="D114" s="55"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="55"/>
+    </row>
+    <row r="115" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B115" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C115" s="55"/>
+      <c r="D115" s="55"/>
+      <c r="E115" s="55"/>
+      <c r="F115" s="55"/>
+      <c r="G115" s="55"/>
+    </row>
+    <row r="116" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B116" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C116" s="55"/>
+      <c r="D116" s="55"/>
+      <c r="E116" s="55"/>
+      <c r="F116" s="55"/>
+      <c r="G116" s="55"/>
+    </row>
+    <row r="117" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B117" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C117" s="55"/>
+      <c r="D117" s="55"/>
+      <c r="E117" s="55"/>
+      <c r="F117" s="55" t="s">
+        <v>509</v>
+      </c>
+      <c r="G117" s="55"/>
+    </row>
+    <row r="118" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B118" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C118" s="55"/>
+      <c r="D118" s="55"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="55"/>
+    </row>
+    <row r="120" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="56" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B121" s="46"/>
+      <c r="C121" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D121" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E121" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F121" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G121" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="48"/>
+      <c r="B122" s="49"/>
+      <c r="C122" s="50"/>
+      <c r="D122" s="50"/>
+      <c r="E122" s="50"/>
+      <c r="F122" s="50"/>
+      <c r="G122" s="50"/>
+    </row>
+    <row r="123" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B123" s="52"/>
+      <c r="C123" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D123" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E123" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F123" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G123" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B124" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C124" s="55"/>
+      <c r="D124" s="55"/>
+      <c r="E124" s="55"/>
+      <c r="F124" s="55"/>
+      <c r="G124" s="55"/>
+    </row>
+    <row r="125" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B125" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C125" s="55"/>
+      <c r="D125" s="55"/>
+      <c r="E125" s="55"/>
+      <c r="F125" s="55"/>
+      <c r="G125" s="55"/>
+    </row>
+    <row r="126" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B126" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C126" s="55"/>
+      <c r="D126" s="55"/>
+      <c r="E126" s="55" t="s">
+        <v>545</v>
+      </c>
+      <c r="F126" s="55"/>
+      <c r="G126" s="55"/>
+    </row>
+    <row r="127" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B127" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C127" s="55"/>
+      <c r="D127" s="55"/>
+      <c r="E127" s="55"/>
+      <c r="F127" s="55"/>
+      <c r="G127" s="55"/>
+    </row>
+    <row r="128" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B128" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C128" s="55"/>
+      <c r="D128" s="55"/>
+      <c r="E128" s="55"/>
+      <c r="F128" s="55"/>
+      <c r="G128" s="55"/>
+    </row>
+    <row r="130" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="56" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B131" s="46"/>
+      <c r="C131" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D131" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E131" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F131" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G131" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="48"/>
+      <c r="B132" s="49"/>
+      <c r="C132" s="50"/>
+      <c r="D132" s="50"/>
+      <c r="E132" s="50"/>
+      <c r="F132" s="50"/>
+      <c r="G132" s="50"/>
+    </row>
+    <row r="133" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B133" s="52"/>
+      <c r="C133" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D133" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E133" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F133" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G133" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B134" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C134" s="55"/>
+      <c r="D134" s="55"/>
+      <c r="E134" s="55"/>
+      <c r="F134" s="55"/>
+      <c r="G134" s="55"/>
+    </row>
+    <row r="135" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B135" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C135" s="55"/>
+      <c r="D135" s="55"/>
+      <c r="E135" s="55"/>
+      <c r="F135" s="55"/>
+      <c r="G135" s="55"/>
+    </row>
+    <row r="136" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B136" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C136" s="55"/>
+      <c r="D136" s="55"/>
+      <c r="E136" s="55"/>
+      <c r="F136" s="55"/>
+      <c r="G136" s="55"/>
+    </row>
+    <row r="137" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B137" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C137" s="55"/>
+      <c r="D137" s="55"/>
+      <c r="E137" s="55"/>
+      <c r="F137" s="55"/>
+      <c r="G137" s="55" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B138" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C138" s="55"/>
+      <c r="D138" s="55"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="55"/>
+      <c r="G138" s="55"/>
+    </row>
+    <row r="140" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="56" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B141" s="46"/>
+      <c r="C141" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D141" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E141" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F141" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G141" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="48"/>
+      <c r="B142" s="49"/>
+      <c r="C142" s="50"/>
+      <c r="D142" s="50"/>
+      <c r="E142" s="50"/>
+      <c r="F142" s="50"/>
+      <c r="G142" s="50"/>
+    </row>
+    <row r="143" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B143" s="52"/>
+      <c r="C143" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D143" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E143" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F143" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G143" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B144" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C144" s="55"/>
+      <c r="D144" s="55"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="55"/>
+      <c r="G144" s="55"/>
+    </row>
+    <row r="145" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B145" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C145" s="55"/>
+      <c r="D145" s="55"/>
+      <c r="E145" s="55"/>
+      <c r="F145" s="55"/>
+      <c r="G145" s="55"/>
+    </row>
+    <row r="146" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B146" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C146" s="55"/>
+      <c r="D146" s="55"/>
+      <c r="E146" s="55"/>
+      <c r="F146" s="55"/>
+      <c r="G146" s="55"/>
+    </row>
+    <row r="147" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B147" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C147" s="55"/>
+      <c r="D147" s="55"/>
+      <c r="E147" s="55"/>
+      <c r="F147" s="55" t="s">
+        <v>510</v>
+      </c>
+      <c r="G147" s="55"/>
+    </row>
+    <row r="148" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B148" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C148" s="55"/>
+      <c r="D148" s="55"/>
+      <c r="E148" s="55"/>
+      <c r="F148" s="55"/>
+      <c r="G148" s="55"/>
+    </row>
+    <row r="150" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="56" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B151" s="46"/>
+      <c r="C151" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D151" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E151" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F151" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G151" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="48"/>
+      <c r="B152" s="49"/>
+      <c r="C152" s="50"/>
+      <c r="D152" s="50"/>
+      <c r="E152" s="50"/>
+      <c r="F152" s="50"/>
+      <c r="G152" s="50"/>
+    </row>
+    <row r="153" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B153" s="52"/>
+      <c r="C153" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D153" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E153" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F153" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G153" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B154" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C154" s="55"/>
+      <c r="D154" s="55"/>
+      <c r="E154" s="55"/>
+      <c r="F154" s="55"/>
+      <c r="G154" s="55"/>
+    </row>
+    <row r="155" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B155" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C155" s="55"/>
+      <c r="D155" s="55"/>
+      <c r="E155" s="55"/>
+      <c r="F155" s="55"/>
+      <c r="G155" s="55"/>
+    </row>
+    <row r="156" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B156" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C156" s="55"/>
+      <c r="D156" s="55"/>
+      <c r="E156" s="55"/>
+      <c r="F156" s="55"/>
+      <c r="G156" s="55"/>
+    </row>
+    <row r="157" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B157" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C157" s="55"/>
+      <c r="D157" s="55" t="s">
+        <v>548</v>
+      </c>
+      <c r="E157" s="55"/>
+      <c r="F157" s="55"/>
+      <c r="G157" s="55"/>
+    </row>
+    <row r="158" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B158" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C158" s="55"/>
+      <c r="D158" s="55"/>
+      <c r="E158" s="55"/>
+      <c r="F158" s="55"/>
+      <c r="G158" s="55"/>
+    </row>
+    <row r="160" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="56" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B161" s="46"/>
+      <c r="C161" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D161" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E161" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F161" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G161" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="48"/>
+      <c r="B162" s="49"/>
+      <c r="C162" s="50"/>
+      <c r="D162" s="50"/>
+      <c r="E162" s="50"/>
+      <c r="F162" s="50"/>
+      <c r="G162" s="50"/>
+    </row>
+    <row r="163" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B163" s="52"/>
+      <c r="C163" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D163" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E163" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F163" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G163" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B164" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C164" s="55"/>
+      <c r="D164" s="55"/>
+      <c r="E164" s="55"/>
+      <c r="F164" s="55"/>
+      <c r="G164" s="55"/>
+    </row>
+    <row r="165" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B165" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C165" s="55"/>
+      <c r="D165" s="55"/>
+      <c r="E165" s="55" t="s">
+        <v>545</v>
+      </c>
+      <c r="F165" s="55"/>
+      <c r="G165" s="55"/>
+    </row>
+    <row r="166" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B166" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C166" s="55"/>
+      <c r="D166" s="55"/>
+      <c r="E166" s="55"/>
+      <c r="F166" s="55"/>
+      <c r="G166" s="55"/>
+    </row>
+    <row r="167" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B167" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C167" s="55"/>
+      <c r="D167" s="55"/>
+      <c r="E167" s="55"/>
+      <c r="F167" s="55"/>
+      <c r="G167" s="55"/>
+    </row>
+    <row r="168" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B168" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C168" s="55"/>
+      <c r="D168" s="55"/>
+      <c r="E168" s="55"/>
+      <c r="F168" s="55"/>
+      <c r="G168" s="55"/>
+    </row>
+    <row r="170" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A170" s="56" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B171" s="46"/>
+      <c r="C171" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D171" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E171" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F171" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G171" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="48"/>
+      <c r="B172" s="49"/>
+      <c r="C172" s="50"/>
+      <c r="D172" s="50"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="50"/>
+    </row>
+    <row r="173" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B173" s="52"/>
+      <c r="C173" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D173" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E173" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F173" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G173" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B174" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C174" s="55"/>
+      <c r="D174" s="55"/>
+      <c r="E174" s="55"/>
+      <c r="F174" s="55"/>
+      <c r="G174" s="55"/>
+    </row>
+    <row r="175" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B175" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C175" s="55"/>
+      <c r="D175" s="55"/>
+      <c r="E175" s="55"/>
+      <c r="F175" s="55"/>
+      <c r="G175" s="55"/>
+    </row>
+    <row r="176" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A176" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B176" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C176" s="55"/>
+      <c r="D176" s="55"/>
+      <c r="E176" s="55"/>
+      <c r="F176" s="55"/>
+      <c r="G176" s="55"/>
+    </row>
+    <row r="177" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B177" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C177" s="55"/>
+      <c r="D177" s="55"/>
+      <c r="E177" s="55" t="s">
+        <v>510</v>
+      </c>
+      <c r="F177" s="55"/>
+      <c r="G177" s="55"/>
+    </row>
+    <row r="178" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B178" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C178" s="55"/>
+      <c r="D178" s="55"/>
+      <c r="E178" s="55"/>
+      <c r="F178" s="55"/>
+      <c r="G178" s="55"/>
+    </row>
+    <row r="180" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="56" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B181" s="46"/>
+      <c r="C181" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D181" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E181" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F181" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G181" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="48"/>
+      <c r="B182" s="49"/>
+      <c r="C182" s="50"/>
+      <c r="D182" s="50"/>
+      <c r="E182" s="50"/>
+      <c r="F182" s="50"/>
+      <c r="G182" s="50"/>
+    </row>
+    <row r="183" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B183" s="52"/>
+      <c r="C183" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D183" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E183" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F183" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G183" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B184" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C184" s="55"/>
+      <c r="D184" s="55"/>
+      <c r="E184" s="55"/>
+      <c r="F184" s="55"/>
+      <c r="G184" s="55"/>
+    </row>
+    <row r="185" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B185" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C185" s="55"/>
+      <c r="D185" s="55"/>
+      <c r="E185" s="55"/>
+      <c r="F185" s="55"/>
+      <c r="G185" s="55"/>
+    </row>
+    <row r="186" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B186" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C186" s="55"/>
+      <c r="D186" s="55"/>
+      <c r="E186" s="55"/>
+      <c r="F186" s="55"/>
+      <c r="G186" s="55"/>
+    </row>
+    <row r="187" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B187" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C187" s="55"/>
+      <c r="D187" s="55" t="s">
+        <v>509</v>
+      </c>
+      <c r="E187" s="55"/>
+      <c r="F187" s="55"/>
+      <c r="G187" s="55"/>
+    </row>
+    <row r="188" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B188" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C188" s="55"/>
+      <c r="D188" s="55"/>
+      <c r="E188" s="55"/>
+      <c r="F188" s="55"/>
+      <c r="G188" s="55"/>
+    </row>
+    <row r="190" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="56" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B191" s="46"/>
+      <c r="C191" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D191" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E191" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F191" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G191" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="48"/>
+      <c r="B192" s="49"/>
+      <c r="C192" s="50"/>
+      <c r="D192" s="50"/>
+      <c r="E192" s="50"/>
+      <c r="F192" s="50"/>
+      <c r="G192" s="50"/>
+    </row>
+    <row r="193" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B193" s="52"/>
+      <c r="C193" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D193" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E193" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F193" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G193" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A194" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B194" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C194" s="55"/>
+      <c r="D194" s="55"/>
+      <c r="E194" s="55"/>
+      <c r="F194" s="55"/>
+      <c r="G194" s="55"/>
+    </row>
+    <row r="195" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B195" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C195" s="55"/>
+      <c r="D195" s="55"/>
+      <c r="E195" s="55"/>
+      <c r="F195" s="55"/>
+      <c r="G195" s="55"/>
+    </row>
+    <row r="196" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B196" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C196" s="55"/>
+      <c r="D196" s="55"/>
+      <c r="E196" s="55"/>
+      <c r="F196" s="55"/>
+      <c r="G196" s="55"/>
+    </row>
+    <row r="197" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A197" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B197" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C197" s="55"/>
+      <c r="D197" s="55" t="s">
+        <v>509</v>
+      </c>
+      <c r="E197" s="55"/>
+      <c r="F197" s="55"/>
+      <c r="G197" s="55"/>
+    </row>
+    <row r="198" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B198" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C198" s="55"/>
+      <c r="D198" s="55"/>
+      <c r="E198" s="55"/>
+      <c r="F198" s="55"/>
+      <c r="G198" s="55"/>
+    </row>
+    <row r="200" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="56" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="45" t="s">
+        <v>502</v>
+      </c>
+      <c r="B201" s="46"/>
+      <c r="C201" s="47" t="s">
+        <v>504</v>
+      </c>
+      <c r="D201" s="47" t="s">
+        <v>505</v>
+      </c>
+      <c r="E201" s="47" t="s">
+        <v>506</v>
+      </c>
+      <c r="F201" s="47" t="s">
+        <v>507</v>
+      </c>
+      <c r="G201" s="47" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="48"/>
+      <c r="B202" s="49"/>
+      <c r="C202" s="50"/>
+      <c r="D202" s="50"/>
+      <c r="E202" s="50"/>
+      <c r="F202" s="50"/>
+      <c r="G202" s="50"/>
+    </row>
+    <row r="203" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="51" t="s">
+        <v>503</v>
+      </c>
+      <c r="B203" s="52"/>
+      <c r="C203" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="D203" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="E203" s="53" t="s">
+        <v>511</v>
+      </c>
+      <c r="F203" s="53" t="s">
+        <v>512</v>
+      </c>
+      <c r="G203" s="53" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="54" t="s">
+        <v>514</v>
+      </c>
+      <c r="B204" s="53" t="s">
+        <v>515</v>
+      </c>
+      <c r="C204" s="55"/>
+      <c r="D204" s="55"/>
+      <c r="E204" s="55"/>
+      <c r="F204" s="55"/>
+      <c r="G204" s="55"/>
+    </row>
+    <row r="205" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="54" t="s">
+        <v>516</v>
+      </c>
+      <c r="B205" s="53" t="s">
+        <v>517</v>
+      </c>
+      <c r="C205" s="55"/>
+      <c r="D205" s="55"/>
+      <c r="E205" s="55"/>
+      <c r="F205" s="55"/>
+      <c r="G205" s="55"/>
+    </row>
+    <row r="206" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A206" s="54" t="s">
+        <v>518</v>
+      </c>
+      <c r="B206" s="53" t="s">
+        <v>519</v>
+      </c>
+      <c r="C206" s="55"/>
+      <c r="D206" s="55"/>
+      <c r="E206" s="55"/>
+      <c r="F206" s="55"/>
+      <c r="G206" s="55"/>
+    </row>
+    <row r="207" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="54" t="s">
+        <v>520</v>
+      </c>
+      <c r="B207" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="C207" s="55"/>
+      <c r="D207" s="55"/>
+      <c r="E207" s="55"/>
+      <c r="F207" s="55"/>
+      <c r="G207" s="55" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="54" t="s">
+        <v>522</v>
+      </c>
+      <c r="B208" s="53" t="s">
+        <v>510</v>
+      </c>
+      <c r="C208" s="55"/>
+      <c r="D208" s="55"/>
+      <c r="E208" s="55"/>
+      <c r="F208" s="55"/>
+      <c r="G208" s="55"/>
+    </row>
+  </sheetData>
+  <mergeCells count="160">
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="F191:F192"/>
+    <mergeCell ref="G191:G192"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:D202"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="G201:G202"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="C191:C192"/>
+    <mergeCell ref="D191:D192"/>
+    <mergeCell ref="E191:E192"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="C181:C182"/>
+    <mergeCell ref="D181:D182"/>
+    <mergeCell ref="E181:E182"/>
+    <mergeCell ref="F181:F182"/>
+    <mergeCell ref="G181:G182"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F151:F152"/>
+    <mergeCell ref="G151:G152"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="C161:C162"/>
+    <mergeCell ref="D161:D162"/>
+    <mergeCell ref="E161:E162"/>
+    <mergeCell ref="F161:F162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="C151:C152"/>
+    <mergeCell ref="D151:D152"/>
+    <mergeCell ref="E151:E152"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="F141:F142"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F111:F112"/>
+    <mergeCell ref="G111:G112"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:C122"/>
+    <mergeCell ref="D121:D122"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="F121:F122"/>
+    <mergeCell ref="G121:G122"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="E111:E112"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:C92"/>
+    <mergeCell ref="D91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="D81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:C72"/>
+    <mergeCell ref="D71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A23:B23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>